--- a/biology/Médecine/Charles-Louis_Dumas/Charles-Louis_Dumas.xlsx
+++ b/biology/Médecine/Charles-Louis_Dumas/Charles-Louis_Dumas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charles-Louis Dumas est un médecin français, né à Lyon en 1765, mort à Montpellier en 1813.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il étudia à Montpellier, fut médecin de l'Hôtel-Dieu de Lyon, où il rendit de grands services pendant le siège de la ville (1793), puis à l'armée des Alpes (1794), fut nommé en 1795 professeur d'anatomie et de physiologie à Montpellier, devint successivement doyen de la faculté de médecine, recteur de l'Académie de Montpellier et correspondant de l'Institut de France.
 </t>
@@ -542,7 +556,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Ses principaux ouvrages sont : 
 Principes de physiologie, 1800-1806, où il développe la doctrine du principe vital de Paul-Joseph Barthez ;
